--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,18</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,36; 13,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,35; 10,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,58; 13,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,42; 13,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,59; 13,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,5; 11,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,57</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,84; 13,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,57; 10,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 13,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,34; 11,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 13,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,13; 11,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,83</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>10,92</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 16,11</t>
+          <t>12,72; 13,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,6</t>
+          <t>9,92; 11,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 18,14</t>
+          <t>12,95; 13,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,23</t>
+          <t>10,7; 12,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 16,47</t>
+          <t>12,98; 13,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,5</t>
+          <t>10,41; 11,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,29</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 13,53</t>
+          <t>13,28; 13,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 10,95</t>
+          <t>9,97; 11,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 13,48</t>
+          <t>12,85; 13,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 13,65</t>
+          <t>11,1; 12,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 13,35</t>
+          <t>13,19; 13,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,06</t>
+          <t>10,8; 11,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>11,24</t>
         </is>
       </c>
     </row>
@@ -959,39 +959,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 13,9</t>
+          <t>12,87; 13,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 10,72</t>
+          <t>10,17; 11,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,88; 13,85</t>
+          <t>12,85; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 11,67</t>
+          <t>10,85; 12,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 13,77</t>
+          <t>12,97; 13,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 11,1</t>
+          <t>10,69; 11,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,4</t>
+          <t>13,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>9,98</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 13,59</t>
+          <t>13,12; 13,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 11,12</t>
+          <t>8,91; 11,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 13,97</t>
+          <t>13,07; 13,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 12,13</t>
+          <t>9,75; 11,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 13,63</t>
+          <t>13,21; 13,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 11,37</t>
+          <t>9,47; 10,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>14,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>11,91</t>
         </is>
       </c>
     </row>
@@ -1119,39 +1119,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 14,03</t>
+          <t>13,99; 14,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 11,83</t>
+          <t>9,78; 11,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,9; 13,66</t>
+          <t>14,04; 14,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,18; 12,69</t>
+          <t>12,06; 14,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 13,75</t>
+          <t>14,16; 14,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,82; 11,89</t>
+          <t>11,21; 12,63</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>13,42</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>10,98</t>
         </is>
       </c>
     </row>
@@ -1199,293 +1199,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,81; 13,62</t>
+          <t>13,28; 13,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,08; 11,61</t>
+          <t>10,09; 10,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,8; 13,55</t>
+          <t>13,28; 13,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,89; 12,76</t>
+          <t>11,26; 11,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,94; 13,47</t>
+          <t>13,31; 13,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,76; 11,91</t>
+          <t>10,78; 11,23</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>13,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>9,51</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>13,51</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>13,51</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>13,17; 13,87</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>8,85; 10,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>13,13; 13,96</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 11,24</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>13,25; 13,8</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>9,5; 10,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>14,4</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>14,51</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>12,92</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>14,46</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>13,99; 14,86</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>9,81; 11,8</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>14,07; 14,93</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>12,05; 14,03</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 14,8</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>11,18; 12,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13,54</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>11,54</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>13,53</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>10,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>13,38; 13,68</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 10,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>13,38; 13,71</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>11,2; 11,85</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>13,41; 13,65</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>10,74; 11,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental general - escala</t>
+          <t>Salud mental general - escala (tasa de respuesta: 98,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,98</t>
+          <t>9,34; 10,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,69</t>
+          <t>11,44; 13,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 11,91</t>
+          <t>10,56; 11,96</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 10,73</t>
+          <t>9,58; 10,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 11,74</t>
+          <t>10,3; 11,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 11,07</t>
+          <t>10,16; 11,04</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 11,17</t>
+          <t>9,96; 11,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,7; 12,08</t>
+          <t>10,71; 12,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 11,4</t>
+          <t>10,47; 11,45</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 11,57</t>
+          <t>9,99; 11,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 12,69</t>
+          <t>11,19; 12,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 11,9</t>
+          <t>10,81; 11,98</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 11,58</t>
+          <t>10,09; 11,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,68</t>
+          <t>10,87; 12,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,69; 11,86</t>
+          <t>10,76; 11,97</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,0</t>
+          <t>8,87; 10,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 11,13</t>
+          <t>9,79; 11,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 10,59</t>
+          <t>9,49; 10,67</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,78; 11,83</t>
+          <t>9,78; 11,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 14,11</t>
+          <t>12,01; 14,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,63</t>
+          <t>11,25; 12,84</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,09; 10,66</t>
+          <t>10,1; 10,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,26; 11,85</t>
+          <t>11,25; 11,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,78; 11,23</t>
+          <t>10,76; 11,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Edad-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,07</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>12,91</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,07</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>12,34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>13,01</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,34</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>11,18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,18</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,34; 10,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>12,36; 13,4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 10,91</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>11,44; 13,8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>12,58; 13,56</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,44; 13,8</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>10,56; 11,96</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>12,59; 13,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,56; 11,96</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,13</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>13,3</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>10,99</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>13,31</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,99</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10,57</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13,31</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,57</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,58; 10,82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>12,84; 13,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,58; 10,82</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>10,3; 11,73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>12,75; 13,95</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,3; 11,73</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>10,16; 11,04</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>12,89; 13,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,16; 11,04</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,51</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>13,14</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>11,34</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>13,37</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>10,92</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>13,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>9,96; 11,24</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>12,72; 13,55</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 11,24</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>10,71; 12,08</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>12,95; 13,89</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 12,08</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>10,47; 11,45</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>12,98; 13,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,47; 11,45</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>13,63</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,66</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>11,86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,23</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,86</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>11,29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>13,44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>9,99; 11,68</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>13,28; 13,99</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,99; 11,68</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>11,19; 12,73</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>12,85; 13,65</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,19; 12,73</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>10,81; 11,98</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13,19; 13,73</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 11,98</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,79</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>13,29</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,79</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>13,22</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>11,24</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13,25</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,24</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>10,09; 11,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>12,87; 13,71</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 11,58</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>10,87; 12,76</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>12,85; 13,65</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>10,87; 12,76</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>10,76; 11,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>12,97; 13,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>10,76; 11,97</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,51</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>13,45</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,51</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>10,35</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>13,47</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>9,98</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>13,46</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8,87; 10,75</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>13,12; 13,81</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 10,75</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>9,79; 11,23</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>13,07; 13,88</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,79; 11,23</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>9,49; 10,67</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>13,21; 13,75</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9,49; 10,67</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10,62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>14,41</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>12,92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>14,5</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>12,92</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>11,91</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>14,47</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9,78; 11,75</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>13,99; 14,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9,78; 11,75</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>12,01; 14,03</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>14,04; 14,92</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>12,01; 14,03</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>11,25; 12,84</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>14,16; 14,78</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 12,84</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>13,42</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>11,54</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>13,44</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>11,54</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>10,98</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>13,43</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>10,1; 10,68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>13,28; 13,59</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 10,68</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>11,25; 11,86</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>13,28; 13,63</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 11,86</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>10,76; 11,21</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>13,31; 13,55</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>10,76; 11,21</t>
         </is>
       </c>
     </row>
